--- a/data/cepea-consulta-café-arabica.reparado.xlsx
+++ b/data/cepea-consulta-café-arabica.reparado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipe.guidastri\Documents\Projetos\acompanhamento-cotacao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{431E9924-172F-4A18-9DDC-878CF12396DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4A8736C-F9DC-45C9-980E-07B135BB2DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="1243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="1261">
   <si>
     <t>Café | INDICADOR DO CAFÉ ARÁBICA CEPEA/ESALQ</t>
   </si>
@@ -3760,6 +3760,60 @@
   </si>
   <si>
     <t>425,84</t>
+  </si>
+  <si>
+    <t>29/08/2025</t>
+  </si>
+  <si>
+    <t>2.323,06</t>
+  </si>
+  <si>
+    <t>428,61</t>
+  </si>
+  <si>
+    <t>01/09/2025</t>
+  </si>
+  <si>
+    <t>2.332,86</t>
+  </si>
+  <si>
+    <t>428,44</t>
+  </si>
+  <si>
+    <t>02/09/2025</t>
+  </si>
+  <si>
+    <t>2.299,01</t>
+  </si>
+  <si>
+    <t>419,91</t>
+  </si>
+  <si>
+    <t>03/09/2025</t>
+  </si>
+  <si>
+    <t>2.300,20</t>
+  </si>
+  <si>
+    <t>421,44</t>
+  </si>
+  <si>
+    <t>04/09/2025</t>
+  </si>
+  <si>
+    <t>2.292,66</t>
+  </si>
+  <si>
+    <t>420,98</t>
+  </si>
+  <si>
+    <t>05/09/2025</t>
+  </si>
+  <si>
+    <t>2.277,03</t>
+  </si>
+  <si>
+    <t>421,36</t>
   </si>
 </sst>
 </file>
@@ -4211,10 +4265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J420"/>
+  <dimension ref="A1:J426"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A420" sqref="A420:C420"/>
+      <selection activeCell="A426" sqref="A426:C426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8855,6 +8909,72 @@
       </c>
       <c r="C420" s="3" t="s">
         <v>1242</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>1260</v>
       </c>
     </row>
   </sheetData>

--- a/data/cepea-consulta-café-arabica.reparado.xlsx
+++ b/data/cepea-consulta-café-arabica.reparado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipe.guidastri\Documents\Projetos\acompanhamento-cotacao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A1B1508-CA2B-43AD-8DF8-41DFD343622E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9050C967-B2DF-49B6-A09F-F263D2285E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="1291">
   <si>
     <t>Café | INDICADOR DO CAFÉ ARÁBICA CEPEA/ESALQ</t>
   </si>
@@ -3859,6 +3859,51 @@
   </si>
   <si>
     <t>438,03</t>
+  </si>
+  <si>
+    <t>15/09/2025</t>
+  </si>
+  <si>
+    <t>2.376,04</t>
+  </si>
+  <si>
+    <t>446,79</t>
+  </si>
+  <si>
+    <t>16/09/2025</t>
+  </si>
+  <si>
+    <t>2.358,64</t>
+  </si>
+  <si>
+    <t>445,19</t>
+  </si>
+  <si>
+    <t>17/09/2025</t>
+  </si>
+  <si>
+    <t>2.237,29</t>
+  </si>
+  <si>
+    <t>422,21</t>
+  </si>
+  <si>
+    <t>18/09/2025</t>
+  </si>
+  <si>
+    <t>2.215,26</t>
+  </si>
+  <si>
+    <t>417,19</t>
+  </si>
+  <si>
+    <t>19/09/2025</t>
+  </si>
+  <si>
+    <t>2.147,29</t>
+  </si>
+  <si>
+    <t>403,63</t>
   </si>
 </sst>
 </file>
@@ -4310,10 +4355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J431"/>
+  <dimension ref="A1:J436"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431:C431"/>
+      <selection activeCell="A436" sqref="A436:C436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9075,6 +9120,61 @@
       </c>
       <c r="C431" s="3" t="s">
         <v>1275</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>1290</v>
       </c>
     </row>
   </sheetData>

--- a/data/cepea-consulta-café-arabica.reparado.xlsx
+++ b/data/cepea-consulta-café-arabica.reparado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipe.guidastri\Documents\Projetos\acompanhamento-cotacao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9050C967-B2DF-49B6-A09F-F263D2285E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73815C56-F145-49B6-B954-A85560F9C4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964"/>
   </bookViews>

--- a/data/cepea-consulta-café-arabica.reparado.xlsx
+++ b/data/cepea-consulta-café-arabica.reparado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipe.guidastri\Documents\Projetos\acompanhamento-cotacao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73815C56-F145-49B6-B954-A85560F9C4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84507E4E-4F1D-4D64-A04F-5A4E43FBA7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
